--- a/A物件追蹤表-(完整版).xlsx
+++ b/A物件追蹤表-(完整版).xlsx
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
